--- a/biology/Médecine/Groupement_hospitalier_de_territoire_Basse-Alsace_Sud-Moselle/Groupement_hospitalier_de_territoire_Basse-Alsace_Sud-Moselle.xlsx
+++ b/biology/Médecine/Groupement_hospitalier_de_territoire_Basse-Alsace_Sud-Moselle/Groupement_hospitalier_de_territoire_Basse-Alsace_Sud-Moselle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupement hospitalier de territoire Basse-Alsace Sud-Moselle est un groupement hospitalier de territoire (GHT) mode de coopération entre les établissements publics de santé en France, regroupant 9 établissements du Bas-Rhin et 2 établissements de la Moselle. Il s'agit du GHT n°10 de la région Grand Est.
 </t>
@@ -511,9 +523,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le GHT a été créé en 2016 à la suite de la validation de sa convention constitutive[1] et de son projet médical partagé[2] par l'Agence régionale de santé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le GHT a été créé en 2016 à la suite de la validation de sa convention constitutive et de son projet médical partagé par l'Agence régionale de santé.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le GHT Basse-Alsace Sud-Moselle se compose :
 des Hôpitaux universitaires de Strasbourg, qui en sont l'établissement support
@@ -576,7 +592,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le territoire couvert par le GHT correspond à la quasi-totalité du Bas-Rhin, hormis les établissements d'Obernai et Sélestat qui relèvent du GHT no 11 Centre Alsace (structuré autour du centre hospitalier de Colmar), plus le sud de la Moselle, hormis le CHS de Lorquin qui relève du GHT no 6 Lorraine Nord (structuré autour du centre hospitalier régional de Metz-Thionville).
 </t>
